--- a/TPs/exposición oral/df_filtrado.xlsx
+++ b/TPs/exposición oral/df_filtrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
       <c r="Y1" s="1" t="n">
         <v>2029</v>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -559,10 +564,8 @@
       <c r="J2" t="n">
         <v>7774</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-0.438</t>
-        </is>
+      <c r="K2" t="n">
+        <v>-0.438</v>
       </c>
       <c r="L2" t="n">
         <v>4387</v>
@@ -605,6 +608,9 @@
       </c>
       <c r="Y2" t="n">
         <v>3500</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -649,10 +655,8 @@
       <c r="K3" t="n">
         <v>-2156</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.679</t>
-        </is>
+      <c r="L3" t="n">
+        <v>0.679</v>
       </c>
       <c r="M3" t="n">
         <v>6954</v>
@@ -669,10 +673,8 @@
       <c r="Q3" t="n">
         <v>18517</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.241</t>
-        </is>
+      <c r="R3" t="n">
+        <v>-0.241</v>
       </c>
       <c r="S3" t="n">
         <v>1806</v>
@@ -694,6 +696,9 @@
       </c>
       <c r="Y3" t="n">
         <v>3000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -768,10 +773,8 @@
       <c r="U4" t="n">
         <v>1790</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.882</t>
-        </is>
+      <c r="V4" t="n">
+        <v>0.882</v>
       </c>
       <c r="W4" t="n">
         <v>1305</v>
@@ -781,6 +784,9 @@
       </c>
       <c r="Y4" t="n">
         <v>1212</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -822,15 +828,11 @@
       <c r="J5" t="n">
         <v>3902</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.320</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.474</t>
-        </is>
+      <c r="K5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.474</v>
       </c>
       <c r="M5" t="n">
         <v>4115</v>
@@ -838,10 +840,8 @@
       <c r="N5" t="n">
         <v>2854</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.533</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0.533</v>
       </c>
       <c r="P5" t="n">
         <v>-13127</v>
@@ -872,6 +872,9 @@
       </c>
       <c r="Y5" t="n">
         <v>2859</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
